--- a/document/Linux内核相关解析说明.xlsx
+++ b/document/Linux内核相关解析说明.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>I2C驱动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>bus驱动</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,18 +26,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.配置I2C相关的系统和外设寄存器     2.提供最底层的数据收发工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/driver/i2c/busses中，例程中使用为i2c-imx.h</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户实现的驱动，对实际外部芯片的访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>i2c Core</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,6 +163,46 @@
   </si>
   <si>
     <t>驱动注册/注销代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_transfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_master_send</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c_master_recv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c数据收发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adapter-&gt;algorithm-&gt;master_xfer发送和接收数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C总线的核心结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i2c驱动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2C代码主要结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.提供适配器的硬件驱动，探测，初始化硬件上的GPIO配置和中断处理                                        2.提供Algorithm，通过xxx_xfer完成与底层硬件的交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.实现i2c驱动中的接口(probe, remove, suspend, resume等)                                        2.实现与应用层交互的接口(open，read，write，ioctl，close)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,13 +246,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -538,196 +561,238 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D15:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.55" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.21875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="58.1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="58.1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="29.05" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="29.05" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A23"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
